--- a/docs/capabilities/l21_bounded/l21_rerun_results.xlsx
+++ b/docs/capabilities/l21_bounded/l21_rerun_results.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-ACT-R</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAP-008</t>
+          <t>CAP-012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAP-012</t>
+          <t>CAP-020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAP-020</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L21-ACT-R</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L21-ACT-R</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAP-009</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-ACT-R</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L21-ACT-R</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-ACT-R</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L21-ACT-R</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1472,7 +1472,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAP-003</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>READ</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L21-ACT-R</t>
+          <t>L21-ACT-W</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1583,7 +1583,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,22 +1593,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L21-ACT-W</t>
+          <t>L21-EVD-R</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
